--- a/IP地归.xlsx
+++ b/IP地归.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="89">
   <si>
     <t>IP地址</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -656,10 +656,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B91"/>
+  <dimension ref="A1:B315"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="B91" sqref="A1:B91"/>
+    <sheetView tabSelected="1" topLeftCell="A286" workbookViewId="0">
+      <selection activeCell="A260" sqref="A260:XFD315"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1214,6 +1214,1350 @@
         <v>88</v>
       </c>
       <c r="B91" s="1"/>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A92" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B92" s="1"/>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A93" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B93" s="1"/>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A94" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B94" s="1"/>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A95" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B95" s="1"/>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A96" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B96" s="1"/>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A97" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B97" s="1"/>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A98" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" s="1"/>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A99" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B99" s="1"/>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A100" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B100" s="1"/>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A101" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B101" s="1"/>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A102" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B102" s="1"/>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A103" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B103" s="1"/>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A104" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B104" s="1"/>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A105" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B105" s="1"/>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A106" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B106" s="1"/>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A107" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B107" s="1"/>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A108" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B108" s="1"/>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A109" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B109" s="1"/>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A110" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B110" s="1"/>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A111" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B111" s="1"/>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A112" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B112" s="1"/>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A113" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B113" s="1"/>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A114" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B114" s="1"/>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A115" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B115" s="1"/>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A116" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B116" s="1"/>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A117" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B117" s="1"/>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A118" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B118" s="1"/>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A119" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B119" s="1"/>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A120" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B120" s="1"/>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A121" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B121" s="1"/>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A122" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B122" s="1"/>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A123" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B123" s="1"/>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A124" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B124" s="1"/>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A125" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B125" s="1"/>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A126" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B126" s="1"/>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A127" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B127" s="1"/>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A128" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B128" s="1"/>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A129" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B129" s="1"/>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A130" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B130" s="1"/>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A131" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B131" s="1"/>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A132" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B132" s="1"/>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A133" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B133" s="1"/>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A134" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B134" s="1"/>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A135" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B135" s="1"/>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A136" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B136" s="1"/>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A137" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B137" s="1"/>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A138" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B138" s="1"/>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A139" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B139" s="1"/>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A140" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B140" s="1"/>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A141" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B141" s="1"/>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A142" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B142" s="1"/>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A143" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B143" s="1"/>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A144" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B144" s="1"/>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A145" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B145" s="1"/>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A146" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B146" s="1"/>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A147" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B147" s="1"/>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A148" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B148" s="1"/>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A149" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B149" s="1"/>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A150" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B150" s="1"/>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A151" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B151" s="1"/>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A152" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B152" s="1"/>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A153" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B153" s="1"/>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A154" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B154" s="1"/>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A155" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B155" s="1"/>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A156" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B156" s="1"/>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A157" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B157" s="1"/>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A158" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B158" s="1"/>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A159" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B159" s="1"/>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A160" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B160" s="1"/>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A161" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B161" s="1"/>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A162" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B162" s="1"/>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A163" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B163" s="1"/>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A164" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B164" s="1"/>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A165" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B165" s="1"/>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A166" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B166" s="1"/>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A167" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B167" s="1"/>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A168" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B168" s="1"/>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A169" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B169" s="1"/>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A170" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B170" s="1"/>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A171" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B171" s="1"/>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A172" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B172" s="1"/>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A173" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B173" s="1"/>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A174" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B174" s="1"/>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A175" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B175" s="1"/>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A176" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B176" s="1"/>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A177" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B177" s="1"/>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A178" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B178" s="1"/>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A179" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B179" s="1"/>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A180" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B180" s="1"/>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A181" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B181" s="1"/>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A182" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B182" s="1"/>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A183" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B183" s="1"/>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A184" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B184" s="1"/>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A185" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B185" s="1"/>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A186" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B186" s="1"/>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A187" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B187" s="1"/>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A188" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B188" s="1"/>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A189" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B189" s="1"/>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A190" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B190" s="1"/>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A191" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B191" s="1"/>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A192" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B192" s="1"/>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A193" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B193" s="1"/>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A194" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B194" s="1"/>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A195" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B195" s="1"/>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A196" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B196" s="1"/>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A197" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B197" s="1"/>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A198" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B198" s="1"/>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A199" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B199" s="1"/>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A200" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B200" s="1"/>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A201" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B201" s="1"/>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A202" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B202" s="1"/>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A203" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B203" s="1"/>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A204" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B204" s="1"/>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A205" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B205" s="1"/>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A206" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B206" s="1"/>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A207" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B207" s="1"/>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A208" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B208" s="1"/>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A209" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B209" s="1"/>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A210" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B210" s="1"/>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A211" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B211" s="1"/>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A212" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B212" s="1"/>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A213" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B213" s="1"/>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A214" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B214" s="1"/>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A215" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B215" s="1"/>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A216" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B216" s="1"/>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A217" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B217" s="1"/>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A218" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B218" s="1"/>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A219" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B219" s="1"/>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A220" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B220" s="1"/>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A221" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B221" s="1"/>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A222" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B222" s="1"/>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A223" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B223" s="1"/>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A224" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B224" s="1"/>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A225" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B225" s="1"/>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A226" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B226" s="1"/>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A227" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B227" s="1"/>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A228" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B228" s="1"/>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A229" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B229" s="1"/>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A230" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B230" s="1"/>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A231" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B231" s="1"/>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A232" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B232" s="1"/>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A233" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B233" s="1"/>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A234" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B234" s="1"/>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A235" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B235" s="1"/>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A236" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B236" s="1"/>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A237" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B237" s="1"/>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A238" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B238" s="1"/>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A239" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B239" s="1"/>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A240" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B240" s="1"/>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A241" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B241" s="1"/>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A242" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B242" s="1"/>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A243" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B243" s="1"/>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A244" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B244" s="1"/>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A245" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B245" s="1"/>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A246" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B246" s="1"/>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A247" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B247" s="1"/>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A248" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B248" s="1"/>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A249" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B249" s="1"/>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A250" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B250" s="1"/>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A251" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B251" s="1"/>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A252" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B252" s="1"/>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A253" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B253" s="1"/>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A254" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B254" s="1"/>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A255" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B255" s="1"/>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A256" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B256" s="1"/>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A257" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B257" s="1"/>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A258" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B258" s="1"/>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A259" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B259" s="1"/>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A260" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B260" s="1"/>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A261" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B261" s="1"/>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A262" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B262" s="1"/>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A263" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B263" s="1"/>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A264" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B264" s="1"/>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A265" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B265" s="1"/>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A266" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B266" s="1"/>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A267" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B267" s="1"/>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A268" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B268" s="1"/>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A269" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B269" s="1"/>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A270" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B270" s="1"/>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A271" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B271" s="1"/>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A272" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B272" s="1"/>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A273" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B273" s="1"/>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A274" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B274" s="1"/>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A275" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B275" s="1"/>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A276" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B276" s="1"/>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A277" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B277" s="1"/>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A278" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B278" s="1"/>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A279" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B279" s="1"/>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A280" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B280" s="1"/>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A281" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B281" s="1"/>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A282" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B282" s="1"/>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A283" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B283" s="1"/>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A284" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B284" s="1"/>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A285" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B285" s="1"/>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A286" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B286" s="1"/>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A287" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B287" s="1"/>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A288" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B288" s="1"/>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A289" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B289" s="1"/>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A290" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B290" s="1"/>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A291" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B291" s="1"/>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A292" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B292" s="1"/>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A293" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B293" s="1"/>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A294" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B294" s="1"/>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A295" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B295" s="1"/>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A296" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B296" s="1"/>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A297" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B297" s="1"/>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A298" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B298" s="1"/>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A299" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B299" s="1"/>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A300" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B300" s="1"/>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A301" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B301" s="1"/>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A302" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B302" s="1"/>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A303" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B303" s="1"/>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A304" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B304" s="1"/>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A305" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B305" s="1"/>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A306" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B306" s="1"/>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A307" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B307" s="1"/>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A308" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B308" s="1"/>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A309" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B309" s="1"/>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A310" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B310" s="1"/>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A311" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B311" s="1"/>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A312" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B312" s="1"/>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A313" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B313" s="1"/>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A314" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B314" s="1"/>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A315" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B315" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
